--- a/files/tabela-de-transacao.xlsx
+++ b/files/tabela-de-transacao.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Página2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="10">
+  <si>
+    <t>TID</t>
+  </si>
   <si>
     <t>leite</t>
   </si>
@@ -44,15 +48,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
     <font/>
     <font>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -70,15 +77,24 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -89,6 +105,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -318,238 +338,294 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5">
+        <f t="shared" ref="A3:A11" si="1">INT(A2+1)</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>7</v>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>7</v>
+      <c r="A9" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>8</v>
+      <c r="A10" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>8</v>
+      <c r="A11" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/files/tabela-de-transacao.xlsx
+++ b/files/tabela-de-transacao.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="10">
-  <si>
-    <t>TID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="9">
   <si>
     <t>leite</t>
   </si>
@@ -48,20 +45,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
     <font/>
-    <font>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -77,24 +67,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -320,295 +298,253 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5">
-        <f t="shared" ref="A3:A11" si="1">INT(A2+1)</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>8</v>
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>8</v>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>8</v>
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>8</v>
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>8</v>
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>8</v>
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>9</v>
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
